--- a/Cleaned-Data/2016-Passouts/Sem-6_2016_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2016-Passouts/Sem-6_2016_Passout_cleaned.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prashant/Downloads/Student-Placement-Guidance/Cleaned-Data/2016-Passouts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tejas\Student-Placement-Guidance\Cleaned-Data\2016-Passouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27680" windowHeight="14020"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27675" windowHeight="14025"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="185">
   <si>
     <t>SPCC-TH</t>
   </si>
@@ -480,9 +480,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>P/F</t>
@@ -593,7 +590,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -965,42 +962,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="57.19921875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="57.1640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1060,15 +1057,15 @@
         <v>15</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="W1" t="s">
         <v>151</v>
       </c>
-      <c r="W1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="3">
         <v>156201</v>
@@ -1137,7 +1134,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1204,11 +1201,11 @@
       <c r="V3" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -1279,9 +1276,9 @@
         <v>6.46</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="3">
         <v>156203</v>
@@ -1350,7 +1347,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1421,7 +1418,7 @@
         <v>7.29</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1488,11 +1485,11 @@
       <c r="V7" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1563,7 +1560,7 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1634,7 +1631,7 @@
         <v>7.21</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1705,7 +1702,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -1776,7 +1773,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -1847,7 +1844,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
@@ -1918,9 +1915,9 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="3">
         <v>156213</v>
@@ -1989,7 +1986,7 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
@@ -2060,7 +2057,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -2131,7 +2128,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
@@ -2202,9 +2199,9 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="3">
         <v>156214</v>
@@ -2269,11 +2266,11 @@
       <c r="V18" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -2340,11 +2337,11 @@
       <c r="V19" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -2415,7 +2412,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
@@ -2486,7 +2483,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>146</v>
       </c>
@@ -2553,11 +2550,11 @@
       <c r="V22" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -2624,11 +2621,11 @@
       <c r="V23" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -2699,9 +2696,9 @@
         <v>9.08</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" s="3">
         <v>156222</v>
@@ -2770,7 +2767,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -2841,7 +2838,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -2908,11 +2905,11 @@
       <c r="V27" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
@@ -2983,9 +2980,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B29" s="3">
         <v>156226</v>
@@ -3054,7 +3051,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>49</v>
       </c>
@@ -3125,7 +3122,7 @@
         <v>8.42</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>39</v>
       </c>
@@ -3196,7 +3193,7 @@
         <v>7.29</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>40</v>
       </c>
@@ -3267,7 +3264,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>43</v>
       </c>
@@ -3338,7 +3335,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>44</v>
       </c>
@@ -3409,7 +3406,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>45</v>
       </c>
@@ -3476,11 +3473,11 @@
       <c r="V35" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>46</v>
       </c>
@@ -3551,9 +3548,9 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B37" s="3">
         <v>156235</v>
@@ -3622,7 +3619,7 @@
         <v>8.1300000000000008</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>47</v>
       </c>
@@ -3689,13 +3686,13 @@
       <c r="V38" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" s="3">
         <v>156237</v>
@@ -3764,7 +3761,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>48</v>
       </c>
@@ -3835,7 +3832,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>127</v>
       </c>
@@ -3906,9 +3903,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B42" s="3">
         <v>156338</v>
@@ -3977,7 +3974,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>50</v>
       </c>
@@ -4048,9 +4045,9 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B44" s="3">
         <v>156242</v>
@@ -4119,7 +4116,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>52</v>
       </c>
@@ -4190,9 +4187,9 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B46" s="3">
         <v>156244</v>
@@ -4261,7 +4258,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>53</v>
       </c>
@@ -4332,7 +4329,7 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>54</v>
       </c>
@@ -4403,7 +4400,7 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>55</v>
       </c>
@@ -4474,7 +4471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>56</v>
       </c>
@@ -4545,7 +4542,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>57</v>
       </c>
@@ -4616,9 +4613,9 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B52" s="3">
         <v>156250</v>
@@ -4687,7 +4684,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>58</v>
       </c>
@@ -4758,9 +4755,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B54" s="3">
         <v>156252</v>
@@ -4829,7 +4826,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>59</v>
       </c>
@@ -4900,7 +4897,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>60</v>
       </c>
@@ -4971,9 +4968,9 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B57" s="3">
         <v>156255</v>
@@ -5042,7 +5039,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>61</v>
       </c>
@@ -5113,7 +5110,7 @@
         <v>9.67</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>62</v>
       </c>
@@ -5184,7 +5181,7 @@
         <v>6.29</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>63</v>
       </c>
@@ -5251,11 +5248,11 @@
       <c r="V60" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W60" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>64</v>
       </c>
@@ -5326,7 +5323,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>65</v>
       </c>
@@ -5393,11 +5390,11 @@
       <c r="V62" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W62" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>66</v>
       </c>
@@ -5468,9 +5465,9 @@
         <v>7.04</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B64" s="3">
         <v>156262</v>
@@ -5539,7 +5536,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>41</v>
       </c>
@@ -5610,7 +5607,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>67</v>
       </c>
@@ -5681,7 +5678,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>68</v>
       </c>
@@ -5752,7 +5749,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>69</v>
       </c>
@@ -5823,9 +5820,9 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B69" s="3">
         <v>156266</v>
@@ -5894,7 +5891,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>70</v>
       </c>
@@ -5965,7 +5962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>71</v>
       </c>
@@ -6036,9 +6033,9 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B72" s="3">
         <v>156269</v>
@@ -6107,7 +6104,7 @@
         <v>7.38</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>72</v>
       </c>
@@ -6178,7 +6175,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>73</v>
       </c>
@@ -6249,7 +6246,7 @@
         <v>8.42</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>74</v>
       </c>
@@ -6320,9 +6317,9 @@
         <v>6.96</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B76" s="3">
         <v>156273</v>
@@ -6387,11 +6384,11 @@
       <c r="V76" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>75</v>
       </c>
@@ -6462,7 +6459,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>76</v>
       </c>
@@ -6529,11 +6526,11 @@
       <c r="V78" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W78" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>144</v>
       </c>
@@ -6604,7 +6601,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>78</v>
       </c>
@@ -6675,9 +6672,9 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B81" s="3">
         <v>156278</v>
@@ -6746,7 +6743,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>79</v>
       </c>
@@ -6817,7 +6814,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>80</v>
       </c>
@@ -6888,7 +6885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>81</v>
       </c>
@@ -6959,7 +6956,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>82</v>
       </c>
@@ -7026,13 +7023,13 @@
       <c r="V85" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W85" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B86" s="3">
         <v>156283</v>
@@ -7101,7 +7098,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>83</v>
       </c>
@@ -7172,7 +7169,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>84</v>
       </c>
@@ -7243,7 +7240,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>85</v>
       </c>
@@ -7314,9 +7311,9 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B90" s="3">
         <v>156287</v>
@@ -7381,13 +7378,13 @@
       <c r="V90" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W90" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B91" s="3">
         <v>156288</v>
@@ -7456,7 +7453,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>86</v>
       </c>
@@ -7527,7 +7524,7 @@
         <v>8.92</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>87</v>
       </c>
@@ -7598,7 +7595,7 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>88</v>
       </c>
@@ -7665,11 +7662,11 @@
       <c r="V94" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W94" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>89</v>
       </c>
@@ -7740,7 +7737,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>90</v>
       </c>
@@ -7811,7 +7808,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>91</v>
       </c>
@@ -7882,7 +7879,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>28</v>
       </c>
@@ -7953,7 +7950,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>92</v>
       </c>
@@ -8024,9 +8021,9 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B100" s="3">
         <v>156297</v>
@@ -8095,7 +8092,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>93</v>
       </c>
@@ -8166,7 +8163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>94</v>
       </c>
@@ -8237,7 +8234,7 @@
         <v>6.96</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>95</v>
       </c>
@@ -8308,7 +8305,7 @@
         <v>7.79</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>96</v>
       </c>
@@ -8379,9 +8376,9 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B105" s="3">
         <v>156302</v>
@@ -8450,7 +8447,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
@@ -8521,7 +8518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>98</v>
       </c>
@@ -8592,7 +8589,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>99</v>
       </c>
@@ -8663,7 +8660,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>100</v>
       </c>
@@ -8734,7 +8731,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>101</v>
       </c>
@@ -8805,7 +8802,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>102</v>
       </c>
@@ -8876,9 +8873,9 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B112" s="3">
         <v>156309</v>
@@ -8947,7 +8944,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>103</v>
       </c>
@@ -9018,9 +9015,9 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B114" s="3">
         <v>156311</v>
@@ -9089,7 +9086,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>104</v>
       </c>
@@ -9156,11 +9153,11 @@
       <c r="V115" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W115" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>105</v>
       </c>
@@ -9231,7 +9228,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>106</v>
       </c>
@@ -9302,7 +9299,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>107</v>
       </c>
@@ -9373,7 +9370,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>108</v>
       </c>
@@ -9444,7 +9441,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>109</v>
       </c>
@@ -9515,7 +9512,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>110</v>
       </c>
@@ -9586,7 +9583,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>111</v>
       </c>
@@ -9657,9 +9654,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B123" s="3">
         <v>156321</v>
@@ -9728,7 +9725,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>112</v>
       </c>
@@ -9795,11 +9792,11 @@
       <c r="V124" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="W124" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>113</v>
       </c>
@@ -9870,7 +9867,7 @@
         <v>9.3800000000000008</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>114</v>
       </c>
@@ -9941,7 +9938,7 @@
         <v>7.29</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>115</v>
       </c>
@@ -10012,7 +10009,7 @@
         <v>6.63</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>116</v>
       </c>
@@ -10083,7 +10080,7 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>117</v>
       </c>
@@ -10154,7 +10151,7 @@
         <v>8.4600000000000009</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>118</v>
       </c>
@@ -10225,7 +10222,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>119</v>
       </c>
@@ -10296,7 +10293,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>120</v>
       </c>
@@ -10367,9 +10364,9 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B133" s="3">
         <v>156332</v>
@@ -10438,7 +10435,7 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>121</v>
       </c>
@@ -10509,7 +10506,7 @@
         <v>8.6300000000000008</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>122</v>
       </c>
@@ -10580,7 +10577,7 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>123</v>
       </c>
@@ -10651,7 +10648,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>124</v>
       </c>
@@ -10722,9 +10719,9 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B138" s="3">
         <v>156339</v>
@@ -10793,7 +10790,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>125</v>
       </c>
@@ -10864,7 +10861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>126</v>
       </c>
@@ -10935,7 +10932,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>145</v>
       </c>
@@ -11006,7 +11003,7 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>128</v>
       </c>
@@ -11077,7 +11074,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>129</v>
       </c>
@@ -11148,7 +11145,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>131</v>
       </c>
@@ -11219,7 +11216,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>130</v>
       </c>
@@ -11290,7 +11287,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>132</v>
       </c>
@@ -11361,7 +11358,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>133</v>
       </c>
@@ -11432,7 +11429,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>134</v>
       </c>
@@ -11503,9 +11500,9 @@
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B149" s="3">
         <v>156350</v>
@@ -11574,7 +11571,7 @@
         <v>7.79</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>135</v>
       </c>
@@ -11645,7 +11642,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>136</v>
       </c>
@@ -11716,7 +11713,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>137</v>
       </c>
@@ -11787,7 +11784,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>77</v>
       </c>
@@ -11858,7 +11855,7 @@
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>138</v>
       </c>
@@ -11929,7 +11926,7 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>139</v>
       </c>
@@ -12000,7 +11997,7 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>140</v>
       </c>
@@ -12071,7 +12068,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>141</v>
       </c>
@@ -12142,7 +12139,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>142</v>
       </c>
@@ -12213,9 +12210,9 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B159" s="3">
         <v>156359</v>
@@ -12284,7 +12281,7 @@
         <v>8.92</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>143</v>
       </c>
